--- a/ArticleManage/main_working_folder/output_folders/Data 76 Commercial Kevlar derived activated/Data76_all_graphs_excel.xlsx
+++ b/ArticleManage/main_working_folder/output_folders/Data 76 Commercial Kevlar derived activated/Data76_all_graphs_excel.xlsx
@@ -5,10 +5,10 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="AC0" sheetId="1" r:id="rId1"/>
-    <sheet name="AC15" sheetId="2" r:id="rId4"/>
-    <sheet name="AC30" sheetId="3" r:id="rId5"/>
-    <sheet name="AC5" sheetId="4" r:id="rId6"/>
+    <sheet name="Figure 3 AC0  0-1-0-600 " sheetId="1" r:id="rId1"/>
+    <sheet name="Figure 3 AC15  0-1-0-600 " sheetId="2" r:id="rId4"/>
+    <sheet name="Figure 3 AC30  0-1-0-600 " sheetId="3" r:id="rId5"/>
+    <sheet name="Figure 3 AC5  0-1-0-600 " sheetId="4" r:id="rId6"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -109,7 +109,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki AC0</a:t>
+              <a:t>Izoterma adsorpcji probki AC0 z wykresu 'Figure 3' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -168,12 +168,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>AC0!$A$3:$A$50</c:f>
+              <c:f>'Figure 3 AC0  0-1-0-600 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>AC0!$B$3:$B$50</c:f>
+              <c:f>'Figure 3 AC0  0-1-0-600 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -186,6 +186,8 @@
         <c:axId val="1"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -255,6 +257,8 @@
         <c:axId val="2"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="600"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -419,7 +423,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki AC15</a:t>
+              <a:t>Izoterma adsorpcji probki AC15 z wykresu 'Figure 3' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -478,12 +482,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>AC15!$A$3:$A$50</c:f>
+              <c:f>'Figure 3 AC15  0-1-0-600 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>AC15!$B$3:$B$50</c:f>
+              <c:f>'Figure 3 AC15  0-1-0-600 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -496,6 +500,8 @@
         <c:axId val="1"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -565,6 +571,8 @@
         <c:axId val="2"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="600"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -729,7 +737,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki AC30</a:t>
+              <a:t>Izoterma adsorpcji probki AC30 z wykresu 'Figure 3' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -788,12 +796,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>AC30!$A$3:$A$50</c:f>
+              <c:f>'Figure 3 AC30  0-1-0-600 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>AC30!$B$3:$B$50</c:f>
+              <c:f>'Figure 3 AC30  0-1-0-600 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -806,6 +814,8 @@
         <c:axId val="1"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -875,6 +885,8 @@
         <c:axId val="2"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="600"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1039,7 +1051,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki AC5</a:t>
+              <a:t>Izoterma adsorpcji probki AC5 z wykresu 'Figure 3' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1098,12 +1110,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>AC5!$A$3:$A$50</c:f>
+              <c:f>'Figure 3 AC5  0-1-0-600 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>AC5!$B$3:$B$50</c:f>
+              <c:f>'Figure 3 AC5  0-1-0-600 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -1116,6 +1128,8 @@
         <c:axId val="1"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -1185,6 +1199,8 @@
         <c:axId val="2"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="600"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>

--- a/ArticleManage/main_working_folder/output_folders/Data 76 Commercial Kevlar derived activated/Data76_all_graphs_excel.xlsx
+++ b/ArticleManage/main_working_folder/output_folders/Data 76 Commercial Kevlar derived activated/Data76_all_graphs_excel.xlsx
@@ -5,28 +5,24 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Figure 3 AC0  0-1-0-600 " sheetId="1" r:id="rId1"/>
-    <sheet name="Figure 3 AC15  0-1-0-600 " sheetId="2" r:id="rId4"/>
-    <sheet name="Figure 3 AC30  0-1-0-600 " sheetId="3" r:id="rId5"/>
-    <sheet name="Figure 3 AC5  0-1-0-600 " sheetId="4" r:id="rId6"/>
+    <sheet name="Figure 3 AC15  0-1-0-600 " sheetId="1" r:id="rId1"/>
+    <sheet name="Figure 3 AC30  0-1-0-600 " sheetId="2" r:id="rId4"/>
+    <sheet name="Figure 3 AC5  0-1-0-600 " sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
-    <t>AC0</t>
+    <t>AC15</t>
   </si>
   <si>
     <t>X</t>
   </si>
   <si>
     <t>Y</t>
-  </si>
-  <si>
-    <t>AC15</t>
   </si>
   <si>
     <t>AC30</t>
@@ -77,320 +73,6 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0" spc="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr/>
-              <a:t>Izoterma adsorpcji probki AC0 z wykresu 'Figure 3' </a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:title>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f/>
-              <c:strCache>
-                <c:ptCount val="1"/>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln w="28575">
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-            <a:sp3d/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-              <a:sp3d/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Figure 3 AC0  0-1-0-600 '!$A$3:$A$70</c:f>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Figure 3 AC0  0-1-0-600 '!$B$3:$B$70</c:f>
-              <c:numCache/>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:axId val="1"/>
-        <c:axId val="2"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="1"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="1"/>
-          <c:min val="0"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:effectLst/>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr/>
-                  <a:t>Relative pressure</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:title>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-          <a:sp3d/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr kern="1200" sz="900" b="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="2"/>
-        <c:crosses val="autoZero"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="2"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="600"/>
-          <c:min val="0"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:effectLst/>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr/>
-                  <a:t>Volume of gas adsorbed</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:title>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-          <a:sp3d/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr kern="1200" sz="900" b="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:sp3d/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-    <a:sp3d/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr sz="1000" kern="1200">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-          <a:latin typeface="+mn-lt"/>
-          <a:ea typeface="+mn-ea"/>
-          <a:cs typeface="+mn-cs"/>
-        </a:defRPr>
-      </a:pPr>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -704,7 +386,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1018,7 +700,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1452,46 +1134,6 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="276">
   <cs:axisTitle>
@@ -2535,527 +2177,6 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="276">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="276">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3664,41 +2785,6 @@
     <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="4" name="chart"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </graphicFrame>
-    <clientData xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="chart"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -4013,7 +3099,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B51"/>
+  <dimension ref="A1:B36"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4034,389 +3120,269 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.02</v>
+        <v>0.9905</v>
       </c>
       <c r="B3" s="0">
-        <v>295.2129</v>
+        <v>431.3779</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.04</v>
+        <v>0.96</v>
       </c>
       <c r="B4" s="0">
-        <v>326.7035</v>
+        <v>428.1037</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.06</v>
+        <v>0.9294</v>
       </c>
       <c r="B5" s="0">
-        <v>349.2794</v>
+        <v>426.4666</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.08</v>
+        <v>0.8704</v>
       </c>
       <c r="B6" s="0">
-        <v>367.8548</v>
+        <v>423.1924</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.1</v>
+        <v>0.8388</v>
       </c>
       <c r="B7" s="0">
-        <v>382.6305</v>
+        <v>420.7367</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.12</v>
+        <v>0.7798</v>
       </c>
       <c r="B8" s="0">
-        <v>395.398</v>
+        <v>413.3697</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.14</v>
+        <v>0.7492</v>
       </c>
       <c r="B9" s="0">
-        <v>409.7223</v>
+        <v>410.0955</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.16</v>
+        <v>0.6891</v>
       </c>
       <c r="B10" s="0">
-        <v>422.1523</v>
+        <v>406.0027</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.18</v>
+        <v>0.6586</v>
       </c>
       <c r="B11" s="0">
-        <v>433.2492</v>
+        <v>402.7285</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.2</v>
+        <v>0.5985</v>
       </c>
       <c r="B12" s="0">
-        <v>444.9629</v>
+        <v>397.8172</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.22</v>
+        <v>0.5711</v>
       </c>
       <c r="B13" s="0">
-        <v>453.6553</v>
+        <v>396.1801</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.24</v>
+        <v>0.51</v>
       </c>
       <c r="B14" s="0">
-        <v>461.2609</v>
+        <v>390.4502</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.26</v>
+        <v>0.4816</v>
       </c>
       <c r="B15" s="0">
-        <v>469.8355</v>
+        <v>388.8131</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.28</v>
+        <v>0.4204</v>
       </c>
       <c r="B16" s="0">
-        <v>477.2182</v>
+        <v>383.0832</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.3</v>
+        <v>0.3899</v>
       </c>
       <c r="B17" s="0">
-        <v>482.2642</v>
+        <v>380.6276</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.32</v>
+        <v>0.3298</v>
       </c>
       <c r="B18" s="0">
-        <v>487.4363</v>
+        <v>374.8977</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.34</v>
+        <v>0.3003</v>
       </c>
       <c r="B19" s="0">
-        <v>492.0444</v>
+        <v>371.6235</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.36</v>
+        <v>0.2792</v>
       </c>
       <c r="B20" s="0">
-        <v>495.889</v>
+        <v>369.1678</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.38</v>
+        <v>0.2497</v>
       </c>
       <c r="B21" s="0">
-        <v>501.5094</v>
+        <v>365.8936</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.4</v>
+        <v>0.2213</v>
       </c>
       <c r="B22" s="0">
-        <v>506.4486</v>
+        <v>362.6194</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.42</v>
+        <v>0.2086</v>
       </c>
       <c r="B23" s="0">
-        <v>510.0278</v>
+        <v>360.9823</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.44</v>
+        <v>0.1876</v>
       </c>
       <c r="B24" s="0">
-        <v>512.1475</v>
+        <v>356.8895</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.46</v>
+        <v>0.1602</v>
       </c>
       <c r="B25" s="0">
-        <v>516.4239</v>
+        <v>351.1596</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.48</v>
+        <v>0.1286</v>
       </c>
       <c r="B26" s="0">
-        <v>520.2746</v>
+        <v>342.9741</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.5</v>
+        <v>0.1001</v>
       </c>
       <c r="B27" s="0">
-        <v>523.1055</v>
+        <v>333.1514</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.52</v>
+        <v>0.0896</v>
       </c>
       <c r="B28" s="0">
-        <v>526.0738</v>
+        <v>329.0587</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.54</v>
+        <v>0.079</v>
       </c>
       <c r="B29" s="0">
-        <v>527.9714</v>
+        <v>324.1473</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.56</v>
+        <v>0.0685</v>
       </c>
       <c r="B30" s="0">
-        <v>532.2503</v>
+        <v>317.5989</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.58</v>
+        <v>0.0601</v>
       </c>
       <c r="B31" s="0">
-        <v>536.7362</v>
+        <v>311.0505</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.6</v>
+        <v>0.0506</v>
       </c>
       <c r="B32" s="0">
-        <v>539.118</v>
+        <v>302.8649</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>0.62</v>
+        <v>0.04</v>
       </c>
       <c r="B33" s="0">
-        <v>540.8806</v>
+        <v>293.8608</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>0.64</v>
+        <v>0.0306</v>
       </c>
       <c r="B34" s="0">
-        <v>545.1814</v>
+        <v>284.0382</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>0.66</v>
+        <v>0.0221</v>
       </c>
       <c r="B35" s="0">
-        <v>549.4719</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="0">
-        <v>0.68</v>
-      </c>
-      <c r="B36" s="0">
-        <v>553.3778</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="0">
-        <v>0.7</v>
-      </c>
-      <c r="B37" s="0">
-        <v>557.3243</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="0">
-        <v>0.72</v>
-      </c>
-      <c r="B38" s="0">
-        <v>560.694</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="0">
-        <v>0.74</v>
-      </c>
-      <c r="B39" s="0">
-        <v>565.9277</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="0">
-        <v>0.76</v>
-      </c>
-      <c r="B40" s="0">
-        <v>570.6908</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="0">
-        <v>0.78</v>
-      </c>
-      <c r="B41" s="0">
-        <v>575.1273</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="0">
-        <v>0.8</v>
-      </c>
-      <c r="B42" s="0">
-        <v>580.1524</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="0">
-        <v>0.82</v>
-      </c>
-      <c r="B43" s="0">
-        <v>585.8972</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="0">
-        <v>0.84</v>
-      </c>
-      <c r="B44" s="0">
-        <v>592.2753</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="0">
-        <v>0.86</v>
-      </c>
-      <c r="B45" s="0">
-        <v>596.698</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="0">
-        <v>0.9905</v>
-      </c>
-      <c r="B46" s="0">
-        <v>610.6412</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="0">
-        <v>0.96</v>
-      </c>
-      <c r="B47" s="0">
-        <v>605.7299</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="0">
-        <v>0.9305</v>
-      </c>
-      <c r="B48" s="0">
-        <v>604.0928</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="0">
-        <v>0.8978</v>
-      </c>
-      <c r="B49" s="0">
-        <v>597.5443</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="0">
-        <v>0.1286</v>
-      </c>
-      <c r="B50" s="0">
-        <v>402.7285</v>
-      </c>
-    </row>
-    <row r="51"/>
+        <v>275.8527</v>
+      </c>
+    </row>
+    <row r="36"/>
   </sheetData>
   <headerFooter/>
   <drawing r:id="rId1"/>
@@ -4425,7 +3391,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B51"/>
+  <dimension ref="A1:B39"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4446,389 +3412,293 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.04</v>
+        <v>0.9905</v>
       </c>
       <c r="B3" s="0">
-        <v>290.672</v>
+        <v>618.0082</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.06</v>
+        <v>0.96</v>
       </c>
       <c r="B4" s="0">
-        <v>309.9634</v>
+        <v>607.367</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.08</v>
+        <v>0.9305</v>
       </c>
       <c r="B5" s="0">
-        <v>323.3607</v>
+        <v>600.8186</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.1</v>
+        <v>0.8704</v>
       </c>
       <c r="B6" s="0">
-        <v>332.6033</v>
+        <v>591.8145</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.12</v>
+        <v>0.8398</v>
       </c>
       <c r="B7" s="0">
-        <v>339.9594</v>
+        <v>586.9031</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.14</v>
+        <v>0.7798</v>
       </c>
       <c r="B8" s="0">
-        <v>346.4562</v>
+        <v>573.8063</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.16</v>
+        <v>0.7492</v>
       </c>
       <c r="B9" s="0">
-        <v>351.3842</v>
+        <v>564.8022</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.18</v>
+        <v>0.6891</v>
       </c>
       <c r="B10" s="0">
-        <v>355.4638</v>
+        <v>551.7053</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.2</v>
+        <v>0.6607</v>
       </c>
       <c r="B11" s="0">
-        <v>359.0215</v>
+        <v>545.9754</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.22</v>
+        <v>0.6006</v>
       </c>
       <c r="B12" s="0">
-        <v>361.7638</v>
+        <v>534.5157</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.24</v>
+        <v>0.5701</v>
       </c>
       <c r="B13" s="0">
-        <v>364.4648</v>
+        <v>529.6044</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.26</v>
+        <v>0.51</v>
       </c>
       <c r="B14" s="0">
-        <v>367.1565</v>
+        <v>519.7817</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.28</v>
+        <v>0.4795</v>
       </c>
       <c r="B15" s="0">
-        <v>369.3289</v>
+        <v>514.8704</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.3</v>
+        <v>0.4204</v>
       </c>
       <c r="B16" s="0">
-        <v>371.3283</v>
+        <v>504.2292</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.32</v>
+        <v>0.3899</v>
       </c>
       <c r="B17" s="0">
-        <v>373.3757</v>
+        <v>497.6808</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.34</v>
+        <v>0.3288</v>
       </c>
       <c r="B18" s="0">
-        <v>375.4716</v>
+        <v>484.5839</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.36</v>
+        <v>0.2993</v>
       </c>
       <c r="B19" s="0">
-        <v>377.5003</v>
+        <v>474.7613</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.38</v>
+        <v>0.2792</v>
       </c>
       <c r="B20" s="0">
-        <v>379.218</v>
+        <v>468.2128</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.4</v>
+        <v>0.2518</v>
       </c>
       <c r="B21" s="0">
-        <v>381.1728</v>
+        <v>457.5716</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.42</v>
+        <v>0.2202</v>
       </c>
       <c r="B22" s="0">
-        <v>382.8047</v>
+        <v>443.6562</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.44</v>
+        <v>0.2076</v>
       </c>
       <c r="B23" s="0">
-        <v>384.1901</v>
+        <v>437.9263</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.46</v>
+        <v>0.1897</v>
       </c>
       <c r="B24" s="0">
-        <v>386.0684</v>
+        <v>428.9222</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.48</v>
+        <v>0.1602</v>
       </c>
       <c r="B25" s="0">
-        <v>387.742</v>
+        <v>410.9141</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.5</v>
+        <v>0.1296</v>
       </c>
       <c r="B26" s="0">
-        <v>389.4936</v>
+        <v>387.9945</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.52</v>
+        <v>0.0991</v>
       </c>
       <c r="B27" s="0">
-        <v>391.3287</v>
+        <v>364.2565</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.54</v>
+        <v>0.0896</v>
       </c>
       <c r="B28" s="0">
-        <v>392.8658</v>
+        <v>356.8895</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.56</v>
+        <v>0.078</v>
       </c>
       <c r="B29" s="0">
-        <v>394.5714</v>
+        <v>347.0668</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.58</v>
+        <v>0.0685</v>
       </c>
       <c r="B30" s="0">
-        <v>396.5248</v>
+        <v>337.2442</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.6</v>
+        <v>0.059</v>
       </c>
       <c r="B31" s="0">
-        <v>398.1537</v>
+        <v>326.603</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.62</v>
+        <v>0.0495</v>
       </c>
       <c r="B32" s="0">
-        <v>399.5557</v>
+        <v>317.5989</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>0.64</v>
+        <v>0.0379</v>
       </c>
       <c r="B33" s="0">
-        <v>401.2107</v>
+        <v>305.3206</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>0.66</v>
+        <v>0.0285</v>
       </c>
       <c r="B34" s="0">
-        <v>402.6819</v>
+        <v>291.4052</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>0.68</v>
+        <v>0.019</v>
       </c>
       <c r="B35" s="0">
-        <v>404.311</v>
+        <v>275.8527</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>0.7</v>
+        <v>0.0095</v>
       </c>
       <c r="B36" s="0">
-        <v>406.1503</v>
+        <v>254.5703</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0">
-        <v>0.72</v>
+        <v>0.0053</v>
       </c>
       <c r="B37" s="0">
-        <v>407.806</v>
+        <v>241.4734</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0">
-        <v>0.74</v>
+        <v>0.0042</v>
       </c>
       <c r="B38" s="0">
-        <v>409.595</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="0">
-        <v>0.76</v>
-      </c>
-      <c r="B39" s="0">
-        <v>411.5008</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="0">
-        <v>0.78</v>
-      </c>
-      <c r="B40" s="0">
-        <v>413.592</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="0">
-        <v>0.8</v>
-      </c>
-      <c r="B41" s="0">
-        <v>416.119</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="0">
-        <v>0.82</v>
-      </c>
-      <c r="B42" s="0">
-        <v>418.3236</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="0">
-        <v>0.84</v>
-      </c>
-      <c r="B43" s="0">
-        <v>420.6195</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="0">
-        <v>0.86</v>
-      </c>
-      <c r="B44" s="0">
-        <v>422.7725</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="0">
-        <v>0.88</v>
-      </c>
-      <c r="B45" s="0">
-        <v>424.4203</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="0">
-        <v>0.9</v>
-      </c>
-      <c r="B46" s="0">
-        <v>425.9574</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="0">
-        <v>0.92</v>
-      </c>
-      <c r="B47" s="0">
-        <v>426.7134</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="0">
-        <v>0.94</v>
-      </c>
-      <c r="B48" s="0">
-        <v>427.6038</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="0">
-        <v>0.96</v>
-      </c>
-      <c r="B49" s="0">
-        <v>428.7629</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="0">
-        <v>0.9895</v>
-      </c>
-      <c r="B50" s="0">
-        <v>431.3779</v>
-      </c>
-    </row>
-    <row r="51"/>
+        <v>230.0136</v>
+      </c>
+    </row>
+    <row r="39"/>
   </sheetData>
   <headerFooter/>
   <drawing r:id="rId1"/>
@@ -4837,7 +3707,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B69"/>
+  <dimension ref="A1:B37"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4858,953 +3728,277 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.02</v>
+        <v>0.9895</v>
       </c>
       <c r="B3" s="0">
-        <v>272.0153</v>
+        <v>541.0641</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.04</v>
+        <v>0.961</v>
       </c>
       <c r="B4" s="0">
-        <v>305.2243</v>
+        <v>538.6085</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.06</v>
+        <v>0.9273</v>
       </c>
       <c r="B5" s="0">
-        <v>327.5764</v>
+        <v>536.1528</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.08</v>
+        <v>0.8704</v>
       </c>
       <c r="B6" s="0">
-        <v>347.7382</v>
+        <v>532.06</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.1</v>
+        <v>0.8398</v>
       </c>
       <c r="B7" s="0">
-        <v>365.1473</v>
+        <v>526.3302</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.12</v>
+        <v>0.7787</v>
       </c>
       <c r="B8" s="0">
-        <v>381.5192</v>
+        <v>514.0518</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.14</v>
+        <v>0.7492</v>
       </c>
       <c r="B9" s="0">
-        <v>396.8387</v>
+        <v>508.322</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.16</v>
+        <v>0.6891</v>
       </c>
       <c r="B10" s="0">
-        <v>409.7464</v>
+        <v>500.1364</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.18</v>
+        <v>0.6586</v>
       </c>
       <c r="B11" s="0">
-        <v>422.3511</v>
+        <v>496.0437</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.2</v>
+        <v>0.6006</v>
       </c>
       <c r="B12" s="0">
-        <v>433.7961</v>
+        <v>490.3138</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.22</v>
+        <v>0.568</v>
       </c>
       <c r="B13" s="0">
-        <v>442.9956</v>
+        <v>487.0396</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.24</v>
+        <v>0.51</v>
       </c>
       <c r="B14" s="0">
-        <v>452.6472</v>
+        <v>480.4911</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.26</v>
+        <v>0.4805</v>
       </c>
       <c r="B15" s="0">
-        <v>461.5734</v>
+        <v>477.2169</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.28</v>
+        <v>0.4194</v>
       </c>
       <c r="B16" s="0">
-        <v>468.687</v>
+        <v>469.0314</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.3</v>
+        <v>0.3909</v>
       </c>
       <c r="B17" s="0">
-        <v>474.7841</v>
+        <v>465.7572</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.32</v>
+        <v>0.3298</v>
       </c>
       <c r="B18" s="0">
-        <v>480.7699</v>
+        <v>456.7531</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.34</v>
+        <v>0.2993</v>
       </c>
       <c r="B19" s="0">
-        <v>486.8174</v>
+        <v>451.8417</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.36</v>
+        <v>0.2782</v>
       </c>
       <c r="B20" s="0">
-        <v>491.7262</v>
+        <v>446.9304</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.38</v>
+        <v>0.2508</v>
       </c>
       <c r="B21" s="0">
-        <v>495.7849</v>
+        <v>440.382</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.4</v>
+        <v>0.2213</v>
       </c>
       <c r="B22" s="0">
-        <v>500.2094</v>
+        <v>431.3779</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.42</v>
+        <v>0.2076</v>
       </c>
       <c r="B23" s="0">
-        <v>504.4128</v>
+        <v>427.2851</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.44</v>
+        <v>0.1886</v>
       </c>
       <c r="B24" s="0">
-        <v>507.5375</v>
+        <v>419.9181</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.46</v>
+        <v>0.1612</v>
       </c>
       <c r="B25" s="0">
-        <v>510.9117</v>
+        <v>406.0027</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.48</v>
+        <v>0.1296</v>
       </c>
       <c r="B26" s="0">
-        <v>514.1663</v>
+        <v>390.4502</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.5</v>
+        <v>0.1012</v>
       </c>
       <c r="B27" s="0">
-        <v>517.3819</v>
+        <v>373.2606</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.52</v>
+        <v>0.0885</v>
       </c>
       <c r="B28" s="0">
-        <v>520.7948</v>
+        <v>362.6194</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.54</v>
+        <v>0.078</v>
       </c>
       <c r="B29" s="0">
-        <v>524.0057</v>
+        <v>355.2524</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.56</v>
+        <v>0.0674</v>
       </c>
       <c r="B30" s="0">
-        <v>527.4633</v>
+        <v>346.2483</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.58</v>
+        <v>0.059</v>
       </c>
       <c r="B31" s="0">
-        <v>530.9781</v>
+        <v>335.6071</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.6</v>
+        <v>0.0485</v>
       </c>
       <c r="B32" s="0">
-        <v>534.0974</v>
+        <v>324.9659</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>0.62</v>
+        <v>0.0379</v>
       </c>
       <c r="B33" s="0">
-        <v>537.5595</v>
+        <v>313.5061</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>0.64</v>
+        <v>0.0274</v>
       </c>
       <c r="B34" s="0">
-        <v>541.4815</v>
+        <v>298.7722</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>0.66</v>
+        <v>0.0169</v>
       </c>
       <c r="B35" s="0">
-        <v>545.0429</v>
+        <v>283.2196</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>0.68</v>
+        <v>0.0095</v>
       </c>
       <c r="B36" s="0">
-        <v>548.9437</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="0">
-        <v>0.7</v>
-      </c>
-      <c r="B37" s="0">
-        <v>553.3832</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="0">
-        <v>0.72</v>
-      </c>
-      <c r="B38" s="0">
-        <v>557.9407</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="0">
-        <v>0.74</v>
-      </c>
-      <c r="B39" s="0">
-        <v>562.7747</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="0">
-        <v>0.76</v>
-      </c>
-      <c r="B40" s="0">
-        <v>567.9597</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="0">
-        <v>0.78</v>
-      </c>
-      <c r="B41" s="0">
-        <v>572.9257</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="0">
-        <v>0.8</v>
-      </c>
-      <c r="B42" s="0">
-        <v>578.8214</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="0">
-        <v>0.82</v>
-      </c>
-      <c r="B43" s="0">
-        <v>583.6004</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="0">
-        <v>0.84</v>
-      </c>
-      <c r="B44" s="0">
-        <v>586.6087</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="0">
-        <v>0.86</v>
-      </c>
-      <c r="B45" s="0">
-        <v>590.7529</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="0">
-        <v>0.88</v>
-      </c>
-      <c r="B46" s="0">
-        <v>594.6143</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="0">
-        <v>0.9</v>
-      </c>
-      <c r="B47" s="0">
-        <v>596.984</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="0">
-        <v>0.9905</v>
-      </c>
-      <c r="B48" s="0">
-        <v>617.1896</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="0">
-        <v>0.96</v>
-      </c>
-      <c r="B49" s="0">
-        <v>606.5484</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="0">
-        <v>0.9294</v>
-      </c>
-      <c r="B50" s="0">
-        <v>600.8186</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="0">
-        <v>0.0095</v>
-      </c>
-      <c r="B51" s="0">
-        <v>251.296</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="0">
-        <v>0.0053</v>
-      </c>
-      <c r="B52" s="0">
-        <v>238.1992</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="0">
-        <v>0.0032</v>
-      </c>
-      <c r="B53" s="0">
-        <v>229.1951</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="0">
-        <v>0.0274</v>
-      </c>
-      <c r="B54" s="0">
-        <v>290.5866</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="0">
-        <v>0.0495</v>
-      </c>
-      <c r="B55" s="0">
-        <v>315.9618</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="0">
-        <v>0.0674</v>
-      </c>
-      <c r="B56" s="0">
-        <v>337.2442</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="0">
-        <v>0.0885</v>
-      </c>
-      <c r="B57" s="0">
-        <v>356.0709</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="0">
-        <v>0.1275</v>
-      </c>
-      <c r="B58" s="0">
-        <v>387.9945</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="0">
-        <v>0.1897</v>
-      </c>
-      <c r="B59" s="0">
-        <v>427.2851</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="0">
-        <v>0.2097</v>
-      </c>
-      <c r="B60" s="0">
-        <v>437.1078</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="0">
-        <v>0.2487</v>
-      </c>
-      <c r="B61" s="0">
-        <v>456.7531</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="0">
-        <v>0.3319</v>
-      </c>
-      <c r="B62" s="0">
-        <v>484.5839</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="0">
-        <v>0.3888</v>
-      </c>
-      <c r="B63" s="0">
-        <v>497.6808</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="0">
-        <v>0.5111</v>
-      </c>
-      <c r="B64" s="0">
-        <v>519.7817</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="0">
-        <v>0.569</v>
-      </c>
-      <c r="B65" s="0">
-        <v>528.7858</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="0">
-        <v>0.6902</v>
-      </c>
-      <c r="B66" s="0">
-        <v>551.7053</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="0">
-        <v>0.7503</v>
-      </c>
-      <c r="B67" s="0">
-        <v>565.6207</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="0">
-        <v>0.8714</v>
-      </c>
-      <c r="B68" s="0">
-        <v>590.1774</v>
-      </c>
-    </row>
-    <row r="69"/>
-  </sheetData>
-  <headerFooter/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B52"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="0" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="0">
-        <v>0.02</v>
-      </c>
-      <c r="B3" s="0">
-        <v>287.9925</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="0">
-        <v>0.04</v>
-      </c>
-      <c r="B4" s="0">
-        <v>319.252</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="0">
-        <v>0.06</v>
-      </c>
-      <c r="B5" s="0">
-        <v>341.1561</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="0">
-        <v>0.08</v>
-      </c>
-      <c r="B6" s="0">
-        <v>359.9201</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="0">
-        <v>0.1</v>
-      </c>
-      <c r="B7" s="0">
-        <v>374.3643</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="0">
-        <v>0.12</v>
-      </c>
-      <c r="B8" s="0">
-        <v>387.4649</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="0">
-        <v>0.14</v>
-      </c>
-      <c r="B9" s="0">
-        <v>397.4897</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="0">
-        <v>0.16</v>
-      </c>
-      <c r="B10" s="0">
-        <v>404.2043</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="0">
-        <v>0.18</v>
-      </c>
-      <c r="B11" s="0">
-        <v>413.5261</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="0">
-        <v>0.2</v>
-      </c>
-      <c r="B12" s="0">
-        <v>423.0131</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="0">
-        <v>0.22</v>
-      </c>
-      <c r="B13" s="0">
-        <v>430.5214</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="0">
-        <v>0.24</v>
-      </c>
-      <c r="B14" s="0">
-        <v>437.4529</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="0">
-        <v>0.26</v>
-      </c>
-      <c r="B15" s="0">
-        <v>443.3368</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="0">
-        <v>0.28</v>
-      </c>
-      <c r="B16" s="0">
-        <v>447.7587</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="0">
-        <v>0.3</v>
-      </c>
-      <c r="B17" s="0">
-        <v>451.442</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="0">
-        <v>0.32</v>
-      </c>
-      <c r="B18" s="0">
-        <v>454.9975</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="0">
-        <v>0.34</v>
-      </c>
-      <c r="B19" s="0">
-        <v>459.1867</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="0">
-        <v>0.36</v>
-      </c>
-      <c r="B20" s="0">
-        <v>462.7132</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="0">
-        <v>0.38</v>
-      </c>
-      <c r="B21" s="0">
-        <v>464.9171</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="0">
-        <v>0.4</v>
-      </c>
-      <c r="B22" s="0">
-        <v>467.6409</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="0">
-        <v>0.42</v>
-      </c>
-      <c r="B23" s="0">
-        <v>470.1997</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="0">
-        <v>0.44</v>
-      </c>
-      <c r="B24" s="0">
-        <v>472.2129</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="0">
-        <v>0.46</v>
-      </c>
-      <c r="B25" s="0">
-        <v>474.4531</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="0">
-        <v>0.48</v>
-      </c>
-      <c r="B26" s="0">
-        <v>476.55</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="0">
-        <v>0.5</v>
-      </c>
-      <c r="B27" s="0">
-        <v>478.8502</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="0">
-        <v>0.52</v>
-      </c>
-      <c r="B28" s="0">
-        <v>481.2437</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="0">
-        <v>0.54</v>
-      </c>
-      <c r="B29" s="0">
-        <v>483.4274</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="0">
-        <v>0.56</v>
-      </c>
-      <c r="B30" s="0">
-        <v>485.6169</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="0">
-        <v>0.58</v>
-      </c>
-      <c r="B31" s="0">
-        <v>487.7516</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="0">
-        <v>0.6</v>
-      </c>
-      <c r="B32" s="0">
-        <v>489.6765</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="0">
-        <v>0.62</v>
-      </c>
-      <c r="B33" s="0">
-        <v>491.6492</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="0">
-        <v>0.64</v>
-      </c>
-      <c r="B34" s="0">
-        <v>493.888</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="0">
-        <v>0.66</v>
-      </c>
-      <c r="B35" s="0">
-        <v>496.0863</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="0">
-        <v>0.68</v>
-      </c>
-      <c r="B36" s="0">
-        <v>498.563</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="0">
-        <v>0.7</v>
-      </c>
-      <c r="B37" s="0">
-        <v>501.1584</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="0">
-        <v>0.72</v>
-      </c>
-      <c r="B38" s="0">
-        <v>503.8159</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="0">
-        <v>0.74</v>
-      </c>
-      <c r="B39" s="0">
-        <v>506.9682</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="0">
-        <v>0.76</v>
-      </c>
-      <c r="B40" s="0">
-        <v>510.4503</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="0">
-        <v>0.78</v>
-      </c>
-      <c r="B41" s="0">
-        <v>513.9707</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="0">
-        <v>0.8</v>
-      </c>
-      <c r="B42" s="0">
-        <v>518.0264</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="0">
-        <v>0.82</v>
-      </c>
-      <c r="B43" s="0">
-        <v>522.7365</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="0">
-        <v>0.84</v>
-      </c>
-      <c r="B44" s="0">
-        <v>526.9116</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="0">
-        <v>0.86</v>
-      </c>
-      <c r="B45" s="0">
-        <v>529.926</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="0">
-        <v>0.88</v>
-      </c>
-      <c r="B46" s="0">
-        <v>532.343</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="0">
-        <v>0.9</v>
-      </c>
-      <c r="B47" s="0">
-        <v>534.5478</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="0">
-        <v>0.92</v>
-      </c>
-      <c r="B48" s="0">
-        <v>536.1022</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="0">
-        <v>0.94</v>
-      </c>
-      <c r="B49" s="0">
-        <v>537.3703</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="0">
-        <v>0.96</v>
-      </c>
-      <c r="B50" s="0">
-        <v>538.9238</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="0">
-        <v>0.9905</v>
-      </c>
-      <c r="B51" s="0">
-        <v>540.2456</v>
-      </c>
-    </row>
-    <row r="52"/>
+        <v>261.1187</v>
+      </c>
+    </row>
+    <row r="37"/>
   </sheetData>
   <headerFooter/>
   <drawing r:id="rId1"/>

--- a/ArticleManage/main_working_folder/output_folders/Data 76 Commercial Kevlar derived activated/Data76_all_graphs_excel.xlsx
+++ b/ArticleManage/main_working_folder/output_folders/Data 76 Commercial Kevlar derived activated/Data76_all_graphs_excel.xlsx
@@ -5,9 +5,9 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Figure 3 AC15  0-1-0-600 " sheetId="1" r:id="rId1"/>
-    <sheet name="Figure 3 AC30  0-1-0-600 " sheetId="2" r:id="rId4"/>
-    <sheet name="Figure 3 AC5  0-1-0-600 " sheetId="3" r:id="rId5"/>
+    <sheet name="Figure 3 AC15  0&amp;1&amp;0&amp;600 " sheetId="1" r:id="rId1"/>
+    <sheet name="Figure 3 AC30  0&amp;1&amp;0&amp;600 " sheetId="2" r:id="rId4"/>
+    <sheet name="Figure 3 AC5  0&amp;1&amp;0&amp;600 " sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -164,12 +164,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 3 AC15  0-1-0-600 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 3 AC15  0&amp;1&amp;0&amp;600 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 3 AC15  0-1-0-600 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 3 AC15  0&amp;1&amp;0&amp;600 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -478,12 +478,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 3 AC30  0-1-0-600 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 3 AC30  0&amp;1&amp;0&amp;600 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 3 AC30  0-1-0-600 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 3 AC30  0&amp;1&amp;0&amp;600 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -792,12 +792,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 3 AC5  0-1-0-600 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 3 AC5  0&amp;1&amp;0&amp;600 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 3 AC5  0-1-0-600 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 3 AC5  0&amp;1&amp;0&amp;600 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
